--- a/analysis_specifications/analysis2_joel_5.xlsx
+++ b/analysis_specifications/analysis2_joel_5.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,49 +392,39 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>775</v>
+        <v>858</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Inflammatory Bowel Disease</t>
+          <t>Earliest event of Rheumatoid Arthritis</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Earliest event of Rheumatoid Arthritis</t>
+          <t>Earliest event of Crohns disease</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Earliest event of Crohns disease</t>
+          <t>Earliest event of Ulcerative colitis</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>860</v>
+        <v>1013</v>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>Earliest event of Ulcerative colitis</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1013</v>
-      </c>
-      <c r="B8" t="inlineStr">
         <is>
           <t>Earliest event of Ankylosing Spondylitis</t>
         </is>
@@ -447,7 +437,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,27 +462,53 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1073</v>
+        <v>965</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Serious Infection, opportunistic infections and other infections of interest event</t>
+          <t>3-point MACE</t>
         </is>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>967</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4-point MACE</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1073</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Serious Infection, opportunistic infections and other infections of interest event</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
         <v>1074</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Serious Infection</t>
         </is>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>90</v>
       </c>
     </row>
